--- a/NEON Netherlands integral model Wind op Zee Groningen/Results.xlsx
+++ b/NEON Netherlands integral model Wind op Zee Groningen/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl.sharepoint.com/sites/NEON/Shared Documents/WP10 - Integral models/Naud Loomans/Models/NEON Netherlands integral model Wind op Zee Groningen/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -172,6 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4216,36 +4217,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>2019</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-      <c r="D2">
-        <v>2021</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-      <c r="G2">
-        <v>2024</v>
-      </c>
-      <c r="H2">
-        <v>2025</v>
+      <c r="B2" t="n">
+        <v>2019.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2025.0</v>
       </c>
       <c r="I2">
         <v>2026</v>
@@ -4332,25 +4333,25 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>98.686483991358784</v>
-      </c>
-      <c r="C4">
-        <v>98.920330564123987</v>
-      </c>
-      <c r="D4">
-        <v>98.936537377141292</v>
-      </c>
-      <c r="E4">
-        <v>99.055112457488562</v>
-      </c>
-      <c r="F4">
+      <c r="B4" t="n">
+        <v>98.68648399135878</v>
+      </c>
+      <c r="C4" t="n">
+        <v>98.92033056412399</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.93653737714129</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99.05511245748856</v>
+      </c>
+      <c r="F4" t="n">
         <v>99.37335287518691</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>100.71186333153834</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>101.90729785044803</v>
       </c>
       <c r="I4">
@@ -4433,26 +4434,26 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>6.0004880923145425</v>
       </c>
-      <c r="C5">
-        <v>5.9999707159378284</v>
-      </c>
-      <c r="D5">
-        <v>5.9999707159378612</v>
-      </c>
-      <c r="E5">
-        <v>5.9999699509432229</v>
-      </c>
-      <c r="F5">
-        <v>5.9999697259447702</v>
-      </c>
-      <c r="G5">
+      <c r="C5" t="n">
+        <v>5.999970715937828</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.999970715937861</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.999969950943223</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.99996972594477</v>
+      </c>
+      <c r="G5" t="n">
         <v>5.9999687959512755</v>
       </c>
-      <c r="H5">
-        <v>5.9999682109554051</v>
+      <c r="H5" t="n">
+        <v>5.999968210955405</v>
       </c>
       <c r="I5">
         <v>5.9999680159567745</v>
@@ -4534,26 +4535,26 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>57.004006001049952</v>
-      </c>
-      <c r="C6">
-        <v>56.996818071500797</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="n">
+        <v>57.00400600104995</v>
+      </c>
+      <c r="C6" t="n">
+        <v>56.9968180715008</v>
+      </c>
+      <c r="D6" t="n">
         <v>56.996777121734084</v>
       </c>
-      <c r="E6">
-        <v>56.996737977423429</v>
-      </c>
-      <c r="F6">
-        <v>56.996701367784709</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="n">
+        <v>56.99673797742343</v>
+      </c>
+      <c r="F6" t="n">
+        <v>56.99670136778471</v>
+      </c>
+      <c r="G6" t="n">
         <v>56.996650564390954</v>
       </c>
-      <c r="H6">
-        <v>56.996597671521911</v>
+      <c r="H6" t="n">
+        <v>56.99659767152191</v>
       </c>
       <c r="I6">
         <v>56.996546133661539</v>
@@ -4635,25 +4636,25 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>35.681989897994541</v>
-      </c>
-      <c r="C7">
-        <v>35.678913311829952</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>35.68198989799454</v>
+      </c>
+      <c r="C7" t="n">
+        <v>35.67891331182995</v>
+      </c>
+      <c r="D7" t="n">
         <v>35.678913311829746</v>
       </c>
-      <c r="E7">
-        <v>35.678908762778178</v>
-      </c>
-      <c r="F7">
-        <v>35.678907424821517</v>
-      </c>
-      <c r="G7">
-        <v>35.678901894601928</v>
-      </c>
-      <c r="H7">
+      <c r="E7" t="n">
+        <v>35.67890876277818</v>
+      </c>
+      <c r="F7" t="n">
+        <v>35.67890742482152</v>
+      </c>
+      <c r="G7" t="n">
+        <v>35.67890189460193</v>
+      </c>
+      <c r="H7" t="n">
         <v>35.678898415915064</v>
       </c>
       <c r="I7">
@@ -4736,26 +4737,26 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.24462846485558334</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.24579902883193608</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.24685602499636342</v>
       </c>
-      <c r="F8">
-        <v>0.24730093294041469</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>0.2473009329404147</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.24682166771283692</v>
       </c>
-      <c r="H8">
-        <v>0.24699926843999259</v>
+      <c r="H8" t="n">
+        <v>0.2469992684399926</v>
       </c>
       <c r="I8">
         <v>0.24521835298506836</v>
@@ -4837,26 +4838,26 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>9.0594277950667518E-2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>0.09059427795066752</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.38913788056218723</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>1.0052194870193072</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>1.8503351236320271</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>2.7426130402799984</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>3.9936774566177795</v>
       </c>
-      <c r="H9">
-        <v>4.5814468763823823</v>
+      <c r="H9" t="n">
+        <v>4.581446876382382</v>
       </c>
       <c r="I9">
         <v>4.9273758919714412</v>
@@ -4938,25 +4939,25 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1.5077198807683529E-2</v>
-      </c>
-      <c r="E10">
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01507719880768353</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.13263974134725048</v>
       </c>
-      <c r="F10">
-        <v>0.45047342369527738</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>0.4504734236952774</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.7895204088817331</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>2.9848342836152693</v>
       </c>
       <c r="I10">
@@ -5039,26 +5040,26 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5145,25 +5146,25 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
-        <v>97.093269984432155</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="n">
+        <v>97.09326998443215</v>
+      </c>
+      <c r="C16" t="n">
         <v>101.67445550426517</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>102.73947251347528</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>103.98927670084679</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>105.35578805033906</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>108.15825972415183</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>110.00884443401502</v>
       </c>
       <c r="I16">
@@ -5246,26 +5247,26 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>42.352416426918509</v>
-      </c>
-      <c r="C17">
-        <v>45.331588704036548</v>
-      </c>
-      <c r="D17">
+      <c r="B17" t="n">
+        <v>42.35241642691851</v>
+      </c>
+      <c r="C17" t="n">
+        <v>45.33158870403655</v>
+      </c>
+      <c r="D17" t="n">
         <v>53.538067052477395</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>60.784432607631686</v>
       </c>
-      <c r="F17">
-        <v>65.817583275415032</v>
-      </c>
-      <c r="G17">
-        <v>75.171452632026657</v>
-      </c>
-      <c r="H17">
-        <v>79.933561911901293</v>
+      <c r="F17" t="n">
+        <v>65.81758327541503</v>
+      </c>
+      <c r="G17" t="n">
+        <v>75.17145263202666</v>
+      </c>
+      <c r="H17" t="n">
+        <v>79.9335619119013</v>
       </c>
       <c r="I17">
         <v>83.330498432475963</v>
@@ -5347,25 +5348,25 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>3.335930373646216</v>
       </c>
-      <c r="C18">
-        <v>5.5588169209482858</v>
-      </c>
-      <c r="D18">
-        <v>5.4298185414031339</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="n">
+        <v>5.558816920948286</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.429818541403134</v>
+      </c>
+      <c r="E18" t="n">
         <v>5.1464439865744005</v>
       </c>
-      <c r="F18">
-        <v>4.8219525202319629</v>
-      </c>
-      <c r="G18">
-        <v>4.3087892936795038</v>
-      </c>
-      <c r="H18">
+      <c r="F18" t="n">
+        <v>4.821952520231963</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.308789293679504</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.9473711285460893</v>
       </c>
       <c r="I18">
@@ -5448,26 +5449,26 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>4.1533686873168874</v>
-      </c>
-      <c r="C19">
-        <v>5.5640741903588582</v>
-      </c>
-      <c r="D19">
-        <v>6.4198109317462313</v>
-      </c>
-      <c r="E19">
+      <c r="B19" t="n">
+        <v>4.153368687316887</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.564074190358858</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.419810931746231</v>
+      </c>
+      <c r="E19" t="n">
         <v>7.039499949033079</v>
       </c>
-      <c r="F19">
-        <v>7.5100578928988613</v>
-      </c>
-      <c r="G19">
-        <v>7.4860185105912462</v>
-      </c>
-      <c r="H19">
-        <v>7.5698451527057822</v>
+      <c r="F19" t="n">
+        <v>7.510057892898861</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.486018510591246</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.569845152705782</v>
       </c>
       <c r="I19">
         <v>7.6757862712582545</v>
@@ -5549,26 +5550,26 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>20.06267935549219</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>20.061899764741852</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>20.06194873702113</v>
       </c>
-      <c r="E20">
-        <v>20.059314936644689</v>
-      </c>
-      <c r="F20">
-        <v>20.058022941213672</v>
-      </c>
-      <c r="G20">
+      <c r="E20" t="n">
+        <v>20.05931493664469</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20.05802294121367</v>
+      </c>
+      <c r="G20" t="n">
         <v>19.990698248630565</v>
       </c>
-      <c r="H20">
-        <v>19.924326188420341</v>
+      <c r="H20" t="n">
+        <v>19.92432618842034</v>
       </c>
       <c r="I20">
         <v>19.87060256182248</v>
@@ -5650,26 +5651,26 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>14.800438010464122</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>14.146797827987678</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>21.620156418807944</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>28.483465044015063</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>33.238351083120556</v>
       </c>
-      <c r="G21">
-        <v>42.634595035372719</v>
-      </c>
-      <c r="H21">
-        <v>47.244785100680069</v>
+      <c r="G21" t="n">
+        <v>42.63459503537272</v>
+      </c>
+      <c r="H21" t="n">
+        <v>47.24478510068007</v>
       </c>
       <c r="I21">
         <v>50.435455128902298</v>
@@ -5751,25 +5752,25 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>26.862200434806574</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>28.590306943456355</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>24.157238026423528</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>20.72171266915392</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>18.859525748687357</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>15.594827031616743</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>14.24899856158755</v>
       </c>
       <c r="I22">
@@ -5852,25 +5853,25 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>23.898711411249661</v>
-      </c>
-      <c r="C23">
-        <v>23.842925123448101</v>
-      </c>
-      <c r="D23">
+      <c r="B23" t="n">
+        <v>23.89871141124966</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.8429251234481</v>
+      </c>
+      <c r="D23" t="n">
         <v>21.450490527165684</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>19.22003830866845</v>
       </c>
-      <c r="F23">
-        <v>17.667916015879431</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>17.66791601587943</v>
+      </c>
+      <c r="G23" t="n">
         <v>14.811947299002156</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>13.471381711863817</v>
       </c>
       <c r="I23">
@@ -5953,25 +5954,25 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>3.9799417114576428</v>
       </c>
-      <c r="C24">
-        <v>3.9096347333245269</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="n">
+        <v>3.909634733324527</v>
+      </c>
+      <c r="D24" t="n">
         <v>3.5936769074093347</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>3.2630931153926843</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>3.0107630103571807</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>2.5800327615060623</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>2.3549022486624462</v>
       </c>
       <c r="I24">
@@ -6054,26 +6055,26 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -6155,25 +6156,25 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>6.3324234992270792E-3</v>
-      </c>
-      <c r="E26">
-        <v>5.5708691365845067E-2</v>
-      </c>
-      <c r="F26">
+      <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.006332423499227079</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05570869136584507</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.18919883795201603</v>
       </c>
-      <c r="G26">
-        <v>0.75135154375362156</v>
-      </c>
-      <c r="H26">
+      <c r="G26" t="n">
+        <v>0.7513515437536216</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.2472343415499214</v>
       </c>
       <c r="I26">
@@ -6256,25 +6257,25 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>1.6830436228325174</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>1.8258506403629962</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>1.4245162172730443</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>1.1380674302551472</v>
       </c>
-      <c r="F27">
-        <v>0.98252146580768795</v>
-      </c>
-      <c r="G27">
-        <v>0.76962891325199045</v>
-      </c>
-      <c r="H27">
+      <c r="F27" t="n">
+        <v>0.982521465807688</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7696289132519905</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.7027294611984134</v>
       </c>
       <c r="I27">
@@ -6357,25 +6358,25 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>5.0514050015458417E-3</v>
-      </c>
-      <c r="C28">
-        <v>6.8772625144774474E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.37263100565700957</v>
-      </c>
-      <c r="E28">
+      <c r="B28" t="n">
+        <v>0.005051405001545842</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.06877262514477447</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3726310056570096</v>
+      </c>
+      <c r="E28" t="n">
         <v>1.0640224585039917</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>1.9560563104314421</v>
       </c>
-      <c r="G28">
-        <v>3.6925579128432462</v>
-      </c>
-      <c r="H28">
+      <c r="G28" t="n">
+        <v>3.692557912843246</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.2278439425481675</v>
       </c>
       <c r="I28">
@@ -6458,26 +6459,26 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="B29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -6564,26 +6565,26 @@
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32">
-        <v>634.19244500887851</v>
-      </c>
-      <c r="C32">
-        <v>753.34138734466148</v>
-      </c>
-      <c r="D32">
-        <v>651.74052625491083</v>
-      </c>
-      <c r="E32">
-        <v>574.00129220063116</v>
-      </c>
-      <c r="F32">
-        <v>533.72870900479791</v>
-      </c>
-      <c r="G32">
-        <v>462.95759138334478</v>
-      </c>
-      <c r="H32">
-        <v>435.31488629411689</v>
+      <c r="B32" t="n">
+        <v>634.1924450088785</v>
+      </c>
+      <c r="C32" t="n">
+        <v>753.3413873446615</v>
+      </c>
+      <c r="D32" t="n">
+        <v>651.7405262549108</v>
+      </c>
+      <c r="E32" t="n">
+        <v>574.0012922006312</v>
+      </c>
+      <c r="F32" t="n">
+        <v>533.7287090047979</v>
+      </c>
+      <c r="G32" t="n">
+        <v>462.9575913833448</v>
+      </c>
+      <c r="H32" t="n">
+        <v>435.3148862941169</v>
       </c>
       <c r="I32">
         <v>419.09861352422627</v>
@@ -6665,25 +6666,25 @@
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>351.07097282947296</v>
       </c>
-      <c r="C33">
-        <v>352.04805469407358</v>
-      </c>
-      <c r="D33">
-        <v>320.30476407789428</v>
-      </c>
-      <c r="E33">
-        <v>292.63377770565711</v>
-      </c>
-      <c r="F33">
+      <c r="C33" t="n">
+        <v>352.0480546940736</v>
+      </c>
+      <c r="D33" t="n">
+        <v>320.3047640778943</v>
+      </c>
+      <c r="E33" t="n">
+        <v>292.6337777056571</v>
+      </c>
+      <c r="F33" t="n">
         <v>273.4473451405413</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>237.92553172843452</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>221.83832803128146</v>
       </c>
       <c r="I33">
@@ -6766,26 +6767,26 @@
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="C34">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D34">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="E34">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="F34">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="G34">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="H34">
-        <v>38.799999999999997</v>
+      <c r="B34" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.8</v>
       </c>
       <c r="I34">
         <v>38.799999999999997</v>
@@ -6867,26 +6868,26 @@
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35">
-        <v>46.047499080000009</v>
-      </c>
-      <c r="C35">
-        <v>77.160195824973044</v>
-      </c>
-      <c r="D35">
-        <v>91.349412000000001</v>
-      </c>
-      <c r="E35">
+      <c r="B35" t="n">
+        <v>46.04749908000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>77.16019582497304</v>
+      </c>
+      <c r="D35" t="n">
+        <v>91.349412</v>
+      </c>
+      <c r="E35" t="n">
         <v>105.564756</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>119.7801</v>
       </c>
-      <c r="G35">
-        <v>133.99544399999999</v>
-      </c>
-      <c r="H35">
-        <v>148.21078800000001</v>
+      <c r="G35" t="n">
+        <v>133.995444</v>
+      </c>
+      <c r="H35" t="n">
+        <v>148.210788</v>
       </c>
       <c r="I35">
         <v>162.426132</v>
@@ -6968,26 +6969,26 @@
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36">
-        <v>57.211867679999997</v>
-      </c>
-      <c r="C36">
+      <c r="B36" t="n">
+        <v>57.21186768</v>
+      </c>
+      <c r="C36" t="n">
         <v>77.13753956227626</v>
       </c>
-      <c r="D36">
-        <v>91.374535683413981</v>
-      </c>
-      <c r="E36">
+      <c r="D36" t="n">
+        <v>91.37453568341398</v>
+      </c>
+      <c r="E36" t="n">
         <v>105.58984140689283</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>119.80518547455786</v>
       </c>
-      <c r="G36">
-        <v>134.02052947443829</v>
-      </c>
-      <c r="H36">
-        <v>148.23587347443851</v>
+      <c r="G36" t="n">
+        <v>134.0205294744383</v>
+      </c>
+      <c r="H36" t="n">
+        <v>148.2358734744385</v>
       </c>
       <c r="I36">
         <v>162.45121747443844</v>
@@ -7069,26 +7070,26 @@
       <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B37">
-        <v>61.069679999999998</v>
-      </c>
-      <c r="C37">
+      <c r="B37" t="n">
+        <v>61.06968</v>
+      </c>
+      <c r="C37" t="n">
         <v>72.01159894024677</v>
       </c>
-      <c r="D37">
-        <v>76.518152606479319</v>
-      </c>
-      <c r="E37">
-        <v>81.053423282693657</v>
-      </c>
-      <c r="F37">
-        <v>85.571302592569253</v>
-      </c>
-      <c r="G37">
-        <v>90.089212646823157</v>
-      </c>
-      <c r="H37">
-        <v>94.624463247266448</v>
+      <c r="D37" t="n">
+        <v>76.51815260647932</v>
+      </c>
+      <c r="E37" t="n">
+        <v>81.05342328269366</v>
+      </c>
+      <c r="F37" t="n">
+        <v>85.57130259256925</v>
+      </c>
+      <c r="G37" t="n">
+        <v>90.08921264682316</v>
+      </c>
+      <c r="H37" t="n">
+        <v>94.62446324726645</v>
       </c>
       <c r="I37">
         <v>99.142342592631863</v>
@@ -7170,26 +7171,26 @@
       <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>110.7225</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>105.8625</v>
       </c>
-      <c r="D38">
-        <v>161.97749999999999</v>
-      </c>
-      <c r="E38">
+      <c r="D38" t="n">
+        <v>161.9775</v>
+      </c>
+      <c r="E38" t="n">
         <v>213.2775</v>
       </c>
-      <c r="F38">
-        <v>258.27749999999997</v>
-      </c>
-      <c r="G38">
-        <v>348.27749999999997</v>
-      </c>
-      <c r="H38">
-        <v>393.27749999999997</v>
+      <c r="F38" t="n">
+        <v>258.2775</v>
+      </c>
+      <c r="G38" t="n">
+        <v>348.2775</v>
+      </c>
+      <c r="H38" t="n">
+        <v>393.2775</v>
       </c>
       <c r="I38">
         <v>424.77749999999997</v>
@@ -7271,26 +7272,26 @@
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="B39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -7372,26 +7373,26 @@
       <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="B40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -7473,26 +7474,26 @@
       <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="B41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -7574,26 +7575,26 @@
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>15</v>
-      </c>
-      <c r="F42">
-        <v>30</v>
-      </c>
-      <c r="G42">
-        <v>50</v>
-      </c>
-      <c r="H42">
-        <v>75</v>
+      <c r="B42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>75.0</v>
       </c>
       <c r="I42">
         <v>105</v>
@@ -7675,26 +7676,26 @@
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="B43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -7776,25 +7777,25 @@
       <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>23.656047466079038</v>
       </c>
-      <c r="C44">
-        <v>25.998791950900362</v>
-      </c>
-      <c r="D44">
+      <c r="C44" t="n">
+        <v>25.99879195090036</v>
+      </c>
+      <c r="D44" t="n">
         <v>18.071870086691476</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>8.277096027051261</v>
       </c>
-      <c r="F44">
-        <v>-8.5273854313809831</v>
-      </c>
-      <c r="G44">
-        <v>-97.127729166299474</v>
-      </c>
-      <c r="H44">
+      <c r="F44" t="n">
+        <v>-8.527385431380983</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-97.12772916629947</v>
+      </c>
+      <c r="H44" t="n">
         <v>-185.23219172207152</v>
       </c>
       <c r="I44">
@@ -7877,25 +7878,25 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1322.7710120644306</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>1502.3600683171312</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>1455.1367607093896</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>1434.1976866229263</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>1450.8827567810852</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>1398.9380800667416</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>1370.0696473250318</v>
       </c>
       <c r="I45">
@@ -7983,26 +7984,26 @@
       <c r="A48" t="s">
         <v>3</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
+      <c r="B48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -8084,26 +8085,26 @@
       <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>261</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
+      <c r="B49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -8185,26 +8186,26 @@
       <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="B50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -8286,26 +8287,26 @@
       <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
+      <c r="B51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n">
         <v>1595.2496676791936</v>
       </c>
-      <c r="D51">
-        <v>707.74203163046241</v>
-      </c>
-      <c r="E51">
-        <v>691.29153830117082</v>
-      </c>
-      <c r="F51">
-        <v>676.03576755886581</v>
-      </c>
-      <c r="G51">
-        <v>662.69941107932573</v>
-      </c>
-      <c r="H51">
-        <v>650.88004124935185</v>
+      <c r="D51" t="n">
+        <v>707.7420316304624</v>
+      </c>
+      <c r="E51" t="n">
+        <v>691.2915383011708</v>
+      </c>
+      <c r="F51" t="n">
+        <v>676.0357675588658</v>
+      </c>
+      <c r="G51" t="n">
+        <v>662.6994110793257</v>
+      </c>
+      <c r="H51" t="n">
+        <v>650.8800412493518</v>
       </c>
       <c r="I51">
         <v>640.28744043843471</v>
@@ -8387,26 +8388,26 @@
       <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C52" t="n">
         <v>1315.8647059905663</v>
       </c>
-      <c r="D52">
-        <v>912.95610125884866</v>
-      </c>
-      <c r="E52">
-        <v>888.78808992554218</v>
-      </c>
-      <c r="F52">
-        <v>869.21492774546277</v>
-      </c>
-      <c r="G52">
-        <v>852.10113618945786</v>
-      </c>
-      <c r="H52">
-        <v>836.93314332388559</v>
+      <c r="D52" t="n">
+        <v>912.9561012588487</v>
+      </c>
+      <c r="E52" t="n">
+        <v>888.7880899255422</v>
+      </c>
+      <c r="F52" t="n">
+        <v>869.2149277454628</v>
+      </c>
+      <c r="G52" t="n">
+        <v>852.1011361894579</v>
+      </c>
+      <c r="H52" t="n">
+        <v>836.9331433238856</v>
       </c>
       <c r="I52">
         <v>823.33880467324104</v>
@@ -8488,25 +8489,25 @@
       <c r="A53" t="s">
         <v>28</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>690.95270847356971</v>
-      </c>
-      <c r="D53">
-        <v>284.08919837379989</v>
-      </c>
-      <c r="E53">
+      <c r="B53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>690.9527084735697</v>
+      </c>
+      <c r="D53" t="n">
+        <v>284.0891983737999</v>
+      </c>
+      <c r="E53" t="n">
         <v>284.95565600435765</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>282.97870486419606</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>282.14334516215285</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>282.42535234031925</v>
       </c>
       <c r="I53">
@@ -8589,25 +8590,25 @@
       <c r="A54" t="s">
         <v>29</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
+      <c r="B54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n">
         <v>-1.3776301578746015</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>3313.2095796794465</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>2953.8758401424807</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>2544.6194153111164</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>4953.7800543307185</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>2447.698463254605</v>
       </c>
       <c r="I54">
@@ -8690,26 +8691,26 @@
       <c r="A55" t="s">
         <v>34</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
+      <c r="B55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" t="n">
         <v>106.25</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>191.25</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>265.359375</v>
       </c>
-      <c r="G55">
-        <v>332.58375000000001</v>
-      </c>
-      <c r="H55">
-        <v>394.94320312500003</v>
+      <c r="G55" t="n">
+        <v>332.58375</v>
+      </c>
+      <c r="H55" t="n">
+        <v>394.943203125</v>
       </c>
       <c r="I55">
         <v>453.62047901785718</v>
@@ -8791,26 +8792,26 @@
       <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
+      <c r="B56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" t="n">
         <v>205.75</v>
       </c>
-      <c r="E56">
-        <v>362.94299999999998</v>
-      </c>
-      <c r="F56">
-        <v>496.23381675000002</v>
-      </c>
-      <c r="G56">
-        <v>614.80061669880001</v>
-      </c>
-      <c r="H56">
-        <v>723.15922539196356</v>
+      <c r="E56" t="n">
+        <v>362.943</v>
+      </c>
+      <c r="F56" t="n">
+        <v>496.23381675</v>
+      </c>
+      <c r="G56" t="n">
+        <v>614.8006166988</v>
+      </c>
+      <c r="H56" t="n">
+        <v>723.1592253919636</v>
       </c>
       <c r="I56">
         <v>823.90563633514114</v>
@@ -8892,26 +8893,26 @@
       <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>54</v>
-      </c>
-      <c r="E57">
-        <v>108</v>
-      </c>
-      <c r="F57">
-        <v>162</v>
-      </c>
-      <c r="G57">
-        <v>216</v>
-      </c>
-      <c r="H57">
-        <v>270</v>
+      <c r="B57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>270.0</v>
       </c>
       <c r="I57">
         <v>324</v>
@@ -8993,26 +8994,26 @@
       <c r="A58" t="s">
         <v>39</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>375</v>
-      </c>
-      <c r="E58">
-        <v>750</v>
-      </c>
-      <c r="F58">
-        <v>1125</v>
-      </c>
-      <c r="G58">
-        <v>1500</v>
-      </c>
-      <c r="H58">
-        <v>1875</v>
+      <c r="B58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1125.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1875.0</v>
       </c>
       <c r="I58">
         <v>2250</v>
@@ -9094,25 +9095,25 @@
       <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
+      <c r="B59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" t="n">
         <v>123.00000000000001</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>216.48000000000002</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>295.49520000000007</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>365.62606080000006</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>429.6106214400001</v>
       </c>
       <c r="I59">
@@ -9195,26 +9196,26 @@
       <c r="A60" t="s">
         <v>40</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
+      <c r="B60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -9296,26 +9297,26 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
+      <c r="B61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C61" t="n">
         <v>3600.689451985455</v>
       </c>
-      <c r="D61">
-        <v>6342.9969109425574</v>
-      </c>
-      <c r="E61">
-        <v>6447.5841243735522</v>
-      </c>
-      <c r="F61">
+      <c r="D61" t="n">
+        <v>6342.996910942557</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6447.584124373552</v>
+      </c>
+      <c r="F61" t="n">
         <v>6716.937207229641</v>
       </c>
-      <c r="G61">
-        <v>9779.7343742604517</v>
-      </c>
-      <c r="H61">
-        <v>7910.6500501251257</v>
+      <c r="G61" t="n">
+        <v>9779.734374260452</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7910.650050125126</v>
       </c>
       <c r="I61">
         <v>8505.7493258744653</v>
@@ -9402,25 +9403,25 @@
       <c r="A64" t="s">
         <v>3</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>3.26</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>3.26</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>3.26</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>3.26</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>3.26</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>3.26</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>3.26</v>
       </c>
       <c r="I64">
@@ -9503,25 +9504,25 @@
       <c r="A65" t="s">
         <v>2</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>14.852</v>
       </c>
-      <c r="C65">
-        <v>14.502000000000001</v>
-      </c>
-      <c r="D65">
+      <c r="C65" t="n">
+        <v>14.502</v>
+      </c>
+      <c r="D65" t="n">
         <v>14.85</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>14.85</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>14.85</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>14.85</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>14.85</v>
       </c>
       <c r="I65">
@@ -9604,26 +9605,26 @@
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="C66">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D66">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="E66">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="F66">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="G66">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="H66">
-        <v>0.48499999999999999</v>
+      <c r="B66" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.485</v>
       </c>
       <c r="I66">
         <v>0.48499999999999999</v>
@@ -9705,25 +9706,25 @@
       <c r="A67" t="s">
         <v>31</v>
       </c>
-      <c r="B67">
-        <v>3.2004100000000002</v>
-      </c>
-      <c r="C67">
-        <v>5.3628159455777764</v>
-      </c>
-      <c r="D67">
-        <v>6.3490000000000002</v>
-      </c>
-      <c r="E67">
-        <v>7.3369999999999997</v>
-      </c>
-      <c r="F67">
-        <v>8.3249999999999993</v>
-      </c>
-      <c r="G67">
-        <v>9.3130000000000006</v>
-      </c>
-      <c r="H67">
+      <c r="B67" t="n">
+        <v>3.20041</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.362815945577776</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.349</v>
+      </c>
+      <c r="E67" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.325</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.313</v>
+      </c>
+      <c r="H67" t="n">
         <v>10.301</v>
       </c>
       <c r="I67">
@@ -9806,25 +9807,25 @@
       <c r="A68" t="s">
         <v>30</v>
       </c>
-      <c r="B68">
-        <v>3.9763600000000001</v>
-      </c>
-      <c r="C68">
-        <v>5.3612412817817807</v>
-      </c>
-      <c r="D68">
-        <v>6.3507461553665543</v>
-      </c>
-      <c r="E68">
+      <c r="B68" t="n">
+        <v>3.97636</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5.361241281781781</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.350746155366554</v>
+      </c>
+      <c r="E68" t="n">
         <v>7.3387434950578845</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>8.326743499760763</v>
       </c>
-      <c r="G68">
-        <v>9.3147434997524527</v>
-      </c>
-      <c r="H68">
+      <c r="G68" t="n">
+        <v>9.314743499752453</v>
+      </c>
+      <c r="H68" t="n">
         <v>10.302743499752468</v>
       </c>
       <c r="I68">
@@ -9907,26 +9908,26 @@
       <c r="A69" t="s">
         <v>28</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>3.528</v>
       </c>
-      <c r="C69">
-        <v>4.1601154789281791</v>
-      </c>
-      <c r="D69">
-        <v>4.4204594226735603</v>
-      </c>
-      <c r="E69">
-        <v>4.6824623502422673</v>
-      </c>
-      <c r="F69">
-        <v>4.9434605772714759</v>
-      </c>
-      <c r="G69">
+      <c r="C69" t="n">
+        <v>4.160115478928179</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.42045942267356</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.682462350242267</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.943460577271476</v>
+      </c>
+      <c r="G69" t="n">
         <v>5.204460580405728</v>
       </c>
-      <c r="H69">
-        <v>5.4664623481956349</v>
+      <c r="H69" t="n">
+        <v>5.466462348195635</v>
       </c>
       <c r="I69">
         <v>5.7274605772750933</v>
@@ -10008,26 +10009,26 @@
       <c r="A70" t="s">
         <v>29</v>
       </c>
-      <c r="B70">
-        <v>2.4605000000000001</v>
-      </c>
-      <c r="C70">
+      <c r="B70" t="n">
+        <v>2.4605</v>
+      </c>
+      <c r="C70" t="n">
         <v>2.3525</v>
       </c>
-      <c r="D70">
-        <v>3.5994999999999999</v>
-      </c>
-      <c r="E70">
-        <v>4.7394999999999996</v>
-      </c>
-      <c r="F70">
-        <v>5.7394999999999996</v>
-      </c>
-      <c r="G70">
-        <v>7.7394999999999996</v>
-      </c>
-      <c r="H70">
-        <v>8.7394999999999996</v>
+      <c r="D70" t="n">
+        <v>3.5995</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.7395</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.7395</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.7395</v>
+      </c>
+      <c r="H70" t="n">
+        <v>8.7395</v>
       </c>
       <c r="I70">
         <v>9.4395000000000007</v>
@@ -10114,25 +10115,25 @@
       <c r="A73" t="s">
         <v>34</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" t="n">
         <v>0.5</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>1.5</v>
       </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>5</v>
-      </c>
-      <c r="H73">
+      <c r="F73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H73" t="n">
         <v>7.5</v>
       </c>
       <c r="I73">
@@ -10215,25 +10216,25 @@
       <c r="A74" t="s">
         <v>32</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" t="n">
         <v>0.5</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>1.5</v>
       </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="G74">
-        <v>5</v>
-      </c>
-      <c r="H74">
+      <c r="F74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H74" t="n">
         <v>7.5</v>
       </c>
       <c r="I74">
@@ -10316,26 +10317,26 @@
       <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>750</v>
-      </c>
-      <c r="E75">
-        <v>2250</v>
-      </c>
-      <c r="F75">
-        <v>4500</v>
-      </c>
-      <c r="G75">
-        <v>7500</v>
-      </c>
-      <c r="H75">
-        <v>11250</v>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2250.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7500.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>11250.0</v>
       </c>
       <c r="I75">
         <v>15750</v>
@@ -10417,25 +10418,25 @@
       <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
+      <c r="B76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
         <v>0.5</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>1.5</v>
       </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76">
-        <v>5</v>
-      </c>
-      <c r="H76">
+      <c r="F76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H76" t="n">
         <v>7.5</v>
       </c>
       <c r="I76">
@@ -10523,26 +10524,26 @@
       <c r="A78" t="s">
         <v>40</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>82.375105360126213</v>
-      </c>
-      <c r="D78">
-        <v>82.375105360126213</v>
-      </c>
-      <c r="E78">
-        <v>82.375105360126213</v>
-      </c>
-      <c r="F78">
-        <v>82.375105360126213</v>
-      </c>
-      <c r="G78">
-        <v>82.375105360126213</v>
-      </c>
-      <c r="H78">
-        <v>82.375105360126213</v>
+      <c r="B78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>82.37510536012621</v>
+      </c>
+      <c r="D78" t="n">
+        <v>82.37510536012621</v>
+      </c>
+      <c r="E78" t="n">
+        <v>82.37510536012621</v>
+      </c>
+      <c r="F78" t="n">
+        <v>82.37510536012621</v>
+      </c>
+      <c r="G78" t="n">
+        <v>82.37510536012621</v>
+      </c>
+      <c r="H78" t="n">
+        <v>82.37510536012621</v>
       </c>
       <c r="I78">
         <v>82.375105360126213</v>
@@ -10624,26 +10625,26 @@
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
+      <c r="B80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -10722,25 +10723,25 @@
       </c>
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B81">
+      <c r="B81" t="n">
         <v>23.656047466079038</v>
       </c>
-      <c r="C81">
-        <v>25.998791950900362</v>
-      </c>
-      <c r="D81">
+      <c r="C81" t="n">
+        <v>25.99879195090036</v>
+      </c>
+      <c r="D81" t="n">
         <v>18.071870086691476</v>
       </c>
-      <c r="E81">
-        <v>8.7946424932126082</v>
-      </c>
-      <c r="F81">
-        <v>4.3276948908350938</v>
-      </c>
-      <c r="G81">
+      <c r="E81" t="n">
+        <v>8.794642493212608</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4.327694890835094</v>
+      </c>
+      <c r="G81" t="n">
         <v>2.5850679388250972</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>1.9926777406802068</v>
       </c>
       <c r="I81">
@@ -10820,25 +10821,25 @@
       </c>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0.51754646616134836</v>
-      </c>
-      <c r="F82">
+      <c r="B82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5175464661613484</v>
+      </c>
+      <c r="F82" t="n">
         <v>12.855080322216077</v>
       </c>
-      <c r="G82">
-        <v>99.712797105124579</v>
-      </c>
-      <c r="H82">
+      <c r="G82" t="n">
+        <v>99.71279710512458</v>
+      </c>
+      <c r="H82" t="n">
         <v>187.22486946275174</v>
       </c>
       <c r="I82">
@@ -10934,10 +10935,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
